--- a/MedicalLink/Templates/BC_PhauThuat_YeuCauQD1055.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCauQD1055.xlsx
@@ -101,9 +101,6 @@
     <t>Tiền</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].BANLANHDAO_TIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -584,34 +584,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,13 +629,22 @@
     <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,24 +971,24 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="G2" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="R2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -1003,175 +1003,175 @@
       <c r="AP2" s="13"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="G3" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:43" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="35" t="s">
+      <c r="H7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="45" t="s">
+      <c r="J7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="35" t="s">
+      <c r="L7" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="Q7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="48" t="s">
+      <c r="R7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="48" t="s">
+      <c r="U7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="48" t="s">
+      <c r="V7" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="W7" s="48" t="s">
+      <c r="X7" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="X7" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y7" s="35" t="s">
+      <c r="Y7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="31" t="s">
+      <c r="Z7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="31" t="s">
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="31" t="s">
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM7" s="29" t="s">
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AN7" s="29" t="s">
+      <c r="AN7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AO7" s="29" t="s">
+      <c r="AO7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AP7" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ7" s="29" t="s">
-        <v>68</v>
+      <c r="AP7" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ7" s="44" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="35"/>
       <c r="Z8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AA8" s="23" t="s">
+      <c r="AB8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AB8" s="23" t="s">
+      <c r="AC8" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="AC8" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="AD8" s="22" t="s">
         <v>23</v>
@@ -1192,17 +1192,17 @@
         <v>24</v>
       </c>
       <c r="AJ8" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="30"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="45"/>
     </row>
     <row r="9" spans="1:43" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
@@ -1337,140 +1337,140 @@
     </row>
     <row r="10" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="S10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AF10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AH10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AI10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AJ10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL10" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AJ10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK10" s="27" t="s">
+      <c r="AN10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AL10" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO10" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="AP10" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ10" s="14"/>
     </row>
     <row r="11" spans="1:43" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -1557,28 +1557,25 @@
       <c r="AQ11" s="18"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AL14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
+      <c r="AL14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AH7:AI7"/>
     <mergeCell ref="AL14:AO14"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G2:O2"/>
@@ -1595,16 +1592,19 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AO7:AO8"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
